--- a/campionato/squadre/campobasso/pellitteri/rigori_pellitteri.xlsx
+++ b/campionato/squadre/campobasso/pellitteri/rigori_pellitteri.xlsx
@@ -361,7 +361,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="3">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="C2" s="3">
         <v>27.0</v>
